--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/9_projects/4500_network_app/rs4500_SNAapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6BADAF-0194-AE49-BF00-F5E6192EA65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0105E7-6E79-4042-88CC-EF733246FDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="460" windowWidth="14980" windowHeight="16940" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
+    <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>type</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Example 7</t>
+  </si>
+  <si>
+    <t>Example 8</t>
+  </si>
+  <si>
+    <t>Type 5</t>
   </si>
 </sst>
 </file>
@@ -658,6 +664,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
@@ -681,7 +698,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +856,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0105E7-6E79-4042-88CC-EF733246FDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C02B583-F0EB-DD46-80BD-5501DC4C452E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
+    <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>type</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>Example 7</t>
-  </si>
-  <si>
-    <t>Example 8</t>
-  </si>
-  <si>
-    <t>Type 5</t>
   </si>
 </sst>
 </file>
@@ -562,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D403CBC4-5DEF-2D46-8762-21C5B40FECEA}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,17 +658,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
@@ -697,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF389C1C-8260-3245-93BC-A72D9B11A6D3}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,18 +839,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C02B583-F0EB-DD46-80BD-5501DC4C452E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF765A-DBD2-4345-80AE-26022ABCE90B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
+    <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D403CBC4-5DEF-2D46-8762-21C5B40FECEA}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF389C1C-8260-3245-93BC-A72D9B11A6D3}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF765A-DBD2-4345-80AE-26022ABCE90B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F0F2E-4B53-384F-AB49-E9B18BFB975D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Example 7</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,6 +725,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
@@ -736,6 +742,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
@@ -750,6 +759,9 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
@@ -764,6 +776,9 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -778,6 +793,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
@@ -792,6 +810,9 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
@@ -806,6 +827,9 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -820,6 +844,9 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" t="s">
         <v>2</v>
       </c>
@@ -833,6 +860,9 @@
       </c>
       <c r="C10" t="s">
         <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F0F2E-4B53-384F-AB49-E9B18BFB975D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669752D5-85B7-EC4D-9387-A0F389E28191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -684,7 +684,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,21 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669752D5-85B7-EC4D-9387-A0F389E28191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED01FA5-BA5C-284E-8E10-400EEDC98CFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>type</t>
   </si>
@@ -101,24 +101,6 @@
   </si>
   <si>
     <t>Type 4</t>
-  </si>
-  <si>
-    <t>Label 1</t>
-  </si>
-  <si>
-    <t>Label 2</t>
-  </si>
-  <si>
-    <t>Label 3</t>
-  </si>
-  <si>
-    <t>Label 4</t>
-  </si>
-  <si>
-    <t>Label 5</t>
-  </si>
-  <si>
-    <t>Label 6</t>
   </si>
   <si>
     <t>title</t>
@@ -560,7 +542,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -592,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -603,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -636,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -647,18 +629,18 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -684,7 +666,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -726,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -743,7 +725,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -760,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -777,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -794,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -811,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -822,13 +804,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -836,7 +818,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -845,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
@@ -862,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -870,7 +852,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -879,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED01FA5-BA5C-284E-8E10-400EEDC98CFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9991138B-EBB2-C743-AF0E-F44EDB85B3E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
   <si>
     <t>type</t>
   </si>
@@ -539,20 +539,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D403CBC4-5DEF-2D46-8762-21C5B40FECEA}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -560,86 +560,83 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9991138B-EBB2-C743-AF0E-F44EDB85B3E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA191D8-61B3-B44D-B9C0-45140E89EBBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" activeTab="1" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
+    <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>type</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Example 8</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D403CBC4-5DEF-2D46-8762-21C5B40FECEA}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,6 +643,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
@@ -662,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF389C1C-8260-3245-93BC-A72D9B11A6D3}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +879,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordaninskeep/Documents/6_School/0_rs4500Lab/Lab 1/rs4500_Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA191D8-61B3-B44D-B9C0-45140E89EBBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEE2B4F-582C-A445-A7F4-4559518FB051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16180" yWindow="460" windowWidth="17420" windowHeight="16000" xr2:uid="{A7DE2093-C2D9-D545-AE28-3C6523133B80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>type</t>
   </si>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF389C1C-8260-3245-93BC-A72D9B11A6D3}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,6 +888,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
